--- a/biology/Médecine/Virus_de_Puumala/Virus_de_Puumala.xlsx
+++ b/biology/Médecine/Virus_de_Puumala/Virus_de_Puumala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de Puumala est un hantavirus du genre Orthohantavirus. Il s'agit d'un virus à ARN monocaténaire de polarité négative, appartenant donc au groupe V de la classification Baltimore. Ce virus enveloppé provoque chez l’humain une insuffisance rénale transitoire appelée néphropathie épidémique, une forme atténuée de fièvre hémorragique avec syndrome rénal (FHSR). Plusieurs Orthohantavirus peuvent générer des formes plus ou moins graves de FHSR, comme le virus de Hantaan, le virus de Séoul ou le virus de Dobrava-Belgrade.
 Les Hantavirus qui circulent sur le continent américain provoquent une autre pathologie appelée syndrome pulmonaire à Hantavirus.
